--- a/similarities/split_global/harmonic_similarity_timestamps_318.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_318.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,714 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['G/3', 'C', 'G']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:02.860000', '0:01:08.740000')]</t>
+          <t>('0:00:52.740000', '0:01:00.860000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:32.980000', '0:00:35.260000')]</t>
+          <t>('0:00:13.079206', '0:00:17.500916')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=62.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=32.98']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>isophonics_19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Eb/3', 'F:min', 'Ab:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min', 'A#:maj'], ['D#:min', 'A#:maj', 'D#:min'], ['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['C', 'D:min', 'F']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:40.800000', '0:00:43.900000'), ('0:00:10.560000', '0:00:17.340000'), ('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:00:28.578000', '0:00:31.777000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:13.860000', '0:00:18.620000'), ('0:00:00.780000', '0:00:05.980000'), ('0:02:07.600000', '0:02:12.400000')]</t>
+          <t>('0:00:11.631519', '0:00:15.172562')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=40.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=28.578</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=13.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-19#t=11.631519</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:00:09.200000', '0:00:20.100000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:00.866546', '0:00:12.917702')]</t>
+          <t>('0:00:00.720000', '0:00:17.050000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=9.2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=0.866546']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>isophonics_78</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>['D', 'A', 'D', 'A', 'E']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['G', 'D', 'G', 'D', 'A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:04.103323', '0:00:13.890534')]</t>
+          <t>('0:01:37.425691', '0:01:45.343696')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:24.860000')]</t>
+          <t>('0:00:03.294000', '0:00:08.399000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=4.103323']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=97.425691</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=3.294</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['F:min', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+          <t>('0:00:45.580000', '0:00:52.160000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:08.460000', '0:00:13.460000')]</t>
+          <t>('0:00:00.600000', '0:00:08.740000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=8.46']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj']]</t>
+          <t>['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A', 'A:7', 'D']]</t>
+          <t>['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:19.500000', '0:00:30.320000')]</t>
+          <t>('0:00:02.580000', '0:00:16.360000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:18.651995', '0:00:24.735623')]</t>
+          <t>('0:00:59.600000', '0:01:13.880000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=19.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=2.58</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=18.651995']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=59.6</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
+          <t>['D/3', 'G', 'D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:11.740000', '0:00:19.740000')]</t>
+          <t>('0:00:57.251357', '0:01:13.909779')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:22.320000', '0:00:49.780000')]</t>
+          <t>('0:01:56.690000', '0:02:02.570000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=11.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=22.32']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_4</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab/3']]</t>
+          <t>['B', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb']]</t>
+          <t>['E', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:24.460000', '0:00:30.010000')]</t>
+          <t>('0:00:14.033000', '0:00:32.669000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:08.350000', '0:00:11.880000')]</t>
+          <t>('0:00:25.850181', '0:00:33.826235')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=24.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=14.033</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=8.35']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=25.850181</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['C:min/G', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:15.060000', '0:00:23.160000'), ('0:00:26.960000', '0:00:33.500000')]</t>
+          <t>('0:00:02.980000', '0:00:08.800000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:08.440000', '0:00:17.540000'), ('0:00:19.980000', '0:00:27.180000')]</t>
+          <t>('0:00:42.880000', '0:00:45.100000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=15.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=26.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=2.98</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=8.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=42.88</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Db', 'Gb', 'Ab', 'Db']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'E/4', 'A']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00.344657', '0:00:16.004920')]</t>
+          <t>('0:01:14.100000', '0:01:20.040000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:04.875000', '0:00:09.340000')]</t>
+          <t>('0:00:15.780000', '0:00:21.280000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=0.344657']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=74.1</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=4.875']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=15.78</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['D:maj/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:min/C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:04.160000', '0:00:08.800000')]</t>
+          <t>('0:00:47.140000', '0:00:55.200000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:49.520000', '0:01:54.200000')]</t>
+          <t>('0:00:32.060000', '0:00:33.280000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=4.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=47.14</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=32.06</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_71</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>['A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>['G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+          <t>('0:01:53.720000', '0:02:10.980000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:03.884104', '0:00:26.140430')]</t>
+          <t>('0:00:32.220000', '0:00:43.900000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=113.72</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=32.22</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:28.440000')]</t>
+          <t>('0:01:15.800000', '0:01:19.600000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:32.080000', '0:00:41.940000')]</t>
+          <t>('0:02:18.800000', '0:02:24.460000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=32.08']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>jaah_15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G:7', 'C', 'F:7', 'C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
+          <t>['Bb:7', 'Eb', 'Ab:7', 'Eb']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:02:08.760000', '0:02:14.600000')]</t>
+          <t>('0:00:12.030000', '0:00:17.460000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:00.465952', '0:00:08.500330')]</t>
+          <t>('0:00:40.370000', '0:00:56.680000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=12.03</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=0.465952']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=40.37</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A:maj6']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:04.511043', '0:00:10.664331')]</t>
+          <t>('0:00:40.380000', '0:00:42.280000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:07', '0:01:10.380000')]</t>
+          <t>('0:00:00.360000', '0:00:05')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-242#t=4.511043']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=67.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=0.36</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
